--- a/final_results/vessel_data_abm.xlsx
+++ b/final_results/vessel_data_abm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>frac_driving</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>battery_size</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>total_charged</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -499,25 +509,44 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F2" t="n">
-        <v>450.5110035482193</v>
+        <v>508.8885531366015</v>
       </c>
       <c r="G2" t="n">
-        <v>3324.147192819863</v>
+        <v>206.4294023836775</v>
       </c>
       <c r="H2" t="n">
-        <v>4000.105542513396</v>
+        <v>62.66630441947908</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4181415474742871</v>
+        <v>0.08899340861885814</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2861236496040485</v>
+        <v>0.1796378076245018</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2957348029216645</v>
+        <v>0.7313687837566401</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8372.268247304077</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0        21
+1        11
+2         0
+3        41
+4        25
+       ... 
+1301     47
+1302    126
+1303     63
+1304     32
+1305    164
+Name: total_charged, Length: 129256, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -534,25 +563,44 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="F3" t="n">
-        <v>439.1701922431255</v>
+        <v>509.7620102496328</v>
       </c>
       <c r="G3" t="n">
-        <v>2623.513652938706</v>
+        <v>437.710747419341</v>
       </c>
       <c r="H3" t="n">
-        <v>4304.503868749738</v>
+        <v>296.9443778079851</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4413340479464178</v>
+        <v>0.2470400422971748</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1921277919242008</v>
+        <v>0.2134461767008358</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3665381601293813</v>
+        <v>0.5395137810019893</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8383.164324361531</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0       429
+1       123
+2       443
+3       100
+4       684
+       ... 
+1291    277
+1292    224
+1293    497
+1294     86
+1295    303
+Name: total_charged, Length: 124197, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -569,25 +617,44 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="F4" t="n">
-        <v>443.7360789548362</v>
+        <v>509.6459523893998</v>
       </c>
       <c r="G4" t="n">
-        <v>2538.643432760841</v>
+        <v>392.7007081587785</v>
       </c>
       <c r="H4" t="n">
-        <v>4046.770822370653</v>
+        <v>181.43397802114</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4712113577164809</v>
+        <v>0.1809237634091522</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2144428638653707</v>
+        <v>0.2159653562384574</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3143457784181484</v>
+        <v>0.6031108803523904</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8448.797492483765</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0       182
+1       177
+2        30
+3       129
+4        59
+       ... 
+1216      0
+1217    115
+1218    119
+1219    274
+1220     32
+Name: total_charged, Length: 124587, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -604,25 +671,44 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="F5" t="n">
-        <v>453.4533665950158</v>
+        <v>509.3009020729499</v>
       </c>
       <c r="G5" t="n">
-        <v>3125.440032069832</v>
+        <v>153.1316388413295</v>
       </c>
       <c r="H5" t="n">
-        <v>4336.343667937297</v>
+        <v>68.1203251827374</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4774152479953985</v>
+        <v>0.101577447969993</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2629620855340479</v>
+        <v>0.1301343401230972</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2596226664705538</v>
+        <v>0.7682882119069097</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11432.79114088729</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0        45
+1       104
+2        32
+3         0
+4        18
+       ... 
+1324    100
+1325     27
+1326     19
+1327     55
+1328     70
+Name: total_charged, Length: 129628, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -639,25 +725,44 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="F6" t="n">
-        <v>417.5396995194735</v>
+        <v>510.0075201937716</v>
       </c>
       <c r="G6" t="n">
-        <v>1427.400167544021</v>
+        <v>528.661196971686</v>
       </c>
       <c r="H6" t="n">
-        <v>3385.449486026889</v>
+        <v>323.5828757992401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.44770634086764</v>
+        <v>0.2488622407138089</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1182872275941114</v>
+        <v>0.2345833513934074</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4340064315382486</v>
+        <v>0.5165544078927837</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11509.45863171522</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0         0
+1       126
+2       469
+3       218
+4         0
+       ... 
+1196    393
+1197    121
+1198    442
+1199    142
+1200    141
+Name: total_charged, Length: 119741, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -674,25 +779,44 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="F7" t="n">
-        <v>435.738289775094</v>
+        <v>507.5298715607734</v>
       </c>
       <c r="G7" t="n">
-        <v>1809.144534820534</v>
+        <v>453.9725382063149</v>
       </c>
       <c r="H7" t="n">
-        <v>4766.656729078163</v>
+        <v>194.5419017719246</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5504351254214174</v>
+        <v>0.1919068959044306</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1422957917704092</v>
+        <v>0.2339969984908543</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3072690828081734</v>
+        <v>0.5740961056047152</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11459.43465567113</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0       238
+1       339
+2       113
+3       220
+4       359
+       ... 
+1283     73
+1284    400
+1285    406
+1286      0
+1287    166
+Name: total_charged, Length: 124121, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -709,25 +833,44 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F8" t="n">
-        <v>479.0308829418089</v>
+        <v>511.0362516374855</v>
       </c>
       <c r="G8" t="n">
-        <v>3760.265358894272</v>
+        <v>296.6333166384444</v>
       </c>
       <c r="H8" t="n">
-        <v>4327.428413583257</v>
+        <v>56.97803654530541</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4480874194693081</v>
+        <v>0.08175400538347506</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3284776789339239</v>
+        <v>0.1591490643505704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.223434901596768</v>
+        <v>0.7590969302659545</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5352.09787381037</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0        89
+1        48
+2        25
+3        71
+4        42
+       ... 
+1254    142
+1255     44
+1256     55
+1257     13
+1258     10
+Name: total_charged, Length: 126173, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -744,25 +887,44 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="F9" t="n">
-        <v>429.9828697609304</v>
+        <v>510.4176330202803</v>
       </c>
       <c r="G9" t="n">
-        <v>2798.562588370139</v>
+        <v>831.4068763008148</v>
       </c>
       <c r="H9" t="n">
-        <v>4270.093194428243</v>
+        <v>280.2880539549259</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5031526666905178</v>
+        <v>0.2077131795030495</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2350865873252435</v>
+        <v>0.3439404083800179</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2617607459842387</v>
+        <v>0.4483464121169326</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5347.592470171842</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0       160
+1         0
+2       418
+3       108
+4       699
+       ... 
+1163     47
+1164      0
+1165     80
+1166    621
+1167    379
+Name: total_charged, Length: 114345, dtype: int64</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -779,25 +941,44 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="F10" t="n">
-        <v>431.978533270939</v>
+        <v>511.3819334949079</v>
       </c>
       <c r="G10" t="n">
-        <v>3278.859839100086</v>
+        <v>693.8127643109007</v>
       </c>
       <c r="H10" t="n">
-        <v>4348.847615426353</v>
+        <v>170.5160744111434</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4711422834866496</v>
+        <v>0.1529007232097687</v>
       </c>
       <c r="J10" t="n">
-        <v>0.275239842532889</v>
+        <v>0.3349695881806478</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2536178739804613</v>
+        <v>0.5121296886095835</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5358.945395616649</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0         0
+1       312
+2       325
+3        67
+4       252
+       ... 
+1187    193
+1188     61
+1189    252
+1190     50
+1191    125
+Name: total_charged, Length: 117115, dtype: int64</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/final_results/vessel_data_abm.xlsx
+++ b/final_results/vessel_data_abm.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>frac_driving</t>
+          <t>frac_sailing</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -509,43 +509,43 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>508.8885531366015</v>
+        <v>689.9447207751965</v>
       </c>
       <c r="G2" t="n">
-        <v>206.4294023836775</v>
+        <v>411.1575575524141</v>
       </c>
       <c r="H2" t="n">
-        <v>62.66630441947908</v>
+        <v>78.21534042754499</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08899340861885814</v>
+        <v>0.07865596740998609</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1796378076245018</v>
+        <v>0.2394453849136681</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7313687837566401</v>
+        <v>0.6818986476763458</v>
       </c>
       <c r="L2" t="n">
-        <v>8372.268247304077</v>
+        <v>8194.50252070112</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0        21
-1        11
-2         0
-3        41
-4        25
+          <t>0        50
+1       111
+2        56
+3        73
+4        50
        ... 
-1301     47
-1302    126
-1303     63
-1304     32
-1305    164
-Name: total_charged, Length: 129256, dtype: int64</t>
+1460     55
+1461     39
+1462     74
+1463     43
+1464     20
+Name: total_charged, Length: 147639, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -563,43 +563,43 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="F3" t="n">
-        <v>509.7620102496328</v>
+        <v>688.0886383578821</v>
       </c>
       <c r="G3" t="n">
-        <v>437.710747419341</v>
+        <v>1151.069482556251</v>
       </c>
       <c r="H3" t="n">
-        <v>296.9443778079851</v>
+        <v>376.5177835322399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2470400422971748</v>
+        <v>0.1940679583731451</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2134461767008358</v>
+        <v>0.3964474108130775</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5395137810019893</v>
+        <v>0.4094846308137775</v>
       </c>
       <c r="L3" t="n">
-        <v>8383.164324361531</v>
+        <v>8290.212922329702</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0       429
-1       123
-2       443
-3       100
-4       684
+          <t>0       440
+1       837
+2       233
+3         0
+4       598
        ... 
-1291    277
-1292    224
-1293    497
-1294     86
-1295    303
-Name: total_charged, Length: 124197, dtype: int64</t>
+1244    888
+1245     51
+1246    371
+1247    325
+1248    205
+Name: total_charged, Length: 126831, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -617,43 +617,43 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>509.6459523893998</v>
+        <v>681.9482143690592</v>
       </c>
       <c r="G4" t="n">
-        <v>392.7007081587785</v>
+        <v>797.2282901403619</v>
       </c>
       <c r="H4" t="n">
-        <v>181.43397802114</v>
+        <v>228.669615049932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1809237634091522</v>
+        <v>0.1501816188972414</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2159653562384574</v>
+        <v>0.3490308216444599</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6031108803523904</v>
+        <v>0.5007875594582987</v>
       </c>
       <c r="L4" t="n">
-        <v>8448.797492483765</v>
+        <v>8256.743845019051</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0       182
-1       177
-2        30
-3       129
-4        59
+          <t>0         0
+1         0
+2         0
+3       353
+4       302
        ... 
-1216      0
-1217    115
-1218    119
-1219    274
-1220     32
-Name: total_charged, Length: 124587, dtype: int64</t>
+1312    310
+1313     32
+1314      0
+1315     89
+1316    126
+Name: total_charged, Length: 135758, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -671,43 +671,43 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="F5" t="n">
-        <v>509.3009020729499</v>
+        <v>735.1793937606573</v>
       </c>
       <c r="G5" t="n">
-        <v>153.1316388413295</v>
+        <v>863.9383246671267</v>
       </c>
       <c r="H5" t="n">
-        <v>68.1203251827374</v>
+        <v>90.14469634769264</v>
       </c>
       <c r="I5" t="n">
-        <v>0.101577447969993</v>
+        <v>0.07538108026612521</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1301343401230972</v>
+        <v>0.3330091836601908</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7682882119069097</v>
+        <v>0.5916097360736841</v>
       </c>
       <c r="L5" t="n">
-        <v>11432.79114088729</v>
+        <v>11330.76436068804</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0        45
-1       104
-2        32
-3         0
-4        18
+          <t>0         6
+1         8
+2         0
+3        77
+4        31
        ... 
-1324    100
-1325     27
-1326     19
-1327     55
-1328     70
-Name: total_charged, Length: 129628, dtype: int64</t>
+1355    203
+1356    112
+1357    147
+1358     20
+1359    212
+Name: total_charged, Length: 140894, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -725,43 +725,43 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F6" t="n">
-        <v>510.0075201937716</v>
+        <v>740.8945746071652</v>
       </c>
       <c r="G6" t="n">
-        <v>528.661196971686</v>
+        <v>1195.444624652926</v>
       </c>
       <c r="H6" t="n">
-        <v>323.5828757992401</v>
+        <v>420.0686714340791</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2488622407138089</v>
+        <v>0.1943338307081175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2345833513934074</v>
+        <v>0.3984978333165458</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5165544078927837</v>
+        <v>0.4071683359753367</v>
       </c>
       <c r="L6" t="n">
-        <v>11509.45863171522</v>
+        <v>11242.40371892212</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0         0
-1       126
-2       469
-3       218
-4         0
+          <t>0       344
+1       661
+2       643
+3       121
+4       373
        ... 
-1196    393
-1197    121
-1198    442
-1199    142
-1200    141
-Name: total_charged, Length: 119741, dtype: int64</t>
+1329      0
+1330    276
+1331    225
+1332    114
+1333    564
+Name: total_charged, Length: 132117, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -779,43 +779,43 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="F7" t="n">
-        <v>507.5298715607734</v>
+        <v>744.8374683771093</v>
       </c>
       <c r="G7" t="n">
-        <v>453.9725382063149</v>
+        <v>1096.403923527824</v>
       </c>
       <c r="H7" t="n">
-        <v>194.5419017719246</v>
+        <v>258.1790175287239</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1919068959044306</v>
+        <v>0.1441430084568653</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2339969984908543</v>
+        <v>0.391017166825935</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5740961056047152</v>
+        <v>0.4648398247171997</v>
       </c>
       <c r="L7" t="n">
-        <v>11459.43465567113</v>
+        <v>11222.12660708321</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0       238
-1       339
-2       113
-3       220
-4       359
+          <t>0         0
+1        91
+2         0
+3       296
+4         0
        ... 
-1283     73
-1284    400
-1285    406
-1286      0
-1287    166
-Name: total_charged, Length: 124121, dtype: int64</t>
+1408     41
+1409      0
+1410      0
+1411    175
+1412    300
+Name: total_charged, Length: 136793, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -833,43 +833,43 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F8" t="n">
-        <v>511.0362516374855</v>
+        <v>513.5685510490364</v>
       </c>
       <c r="G8" t="n">
-        <v>296.6333166384444</v>
+        <v>248.5731362189647</v>
       </c>
       <c r="H8" t="n">
-        <v>56.97803654530541</v>
+        <v>58.64620422562893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08175400538347506</v>
+        <v>0.08381750653259069</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1591490643505704</v>
+        <v>0.151822165247239</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7590969302659545</v>
+        <v>0.7643603282201704</v>
       </c>
       <c r="L8" t="n">
-        <v>5352.09787381037</v>
+        <v>5468.09356784078</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0        89
-1        48
-2        25
-3        71
-4        42
+          <t>0        30
+1        56
+2        90
+3        29
+4        55
        ... 
-1254    142
-1255     44
-1256     55
-1257     13
-1258     10
-Name: total_charged, Length: 126173, dtype: int64</t>
+1279    113
+1280    109
+1281     56
+1282     64
+1283     41
+Name: total_charged, Length: 126562, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -887,43 +887,43 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F9" t="n">
-        <v>510.4176330202803</v>
+        <v>510.8959575445595</v>
       </c>
       <c r="G9" t="n">
-        <v>831.4068763008148</v>
+        <v>825.86044494143</v>
       </c>
       <c r="H9" t="n">
-        <v>280.2880539549259</v>
+        <v>282.3527500613303</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2077131795030495</v>
+        <v>0.2082898776981312</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3439404083800179</v>
+        <v>0.3460109130145631</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4483464121169326</v>
+        <v>0.4456992092873058</v>
       </c>
       <c r="L9" t="n">
-        <v>5347.592470171842</v>
+        <v>5433.788536721603</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0       160
-1         0
-2       418
-3       108
-4       699
+          <t>0       117
+1       258
+2       346
+3       602
+4       147
        ... 
-1163     47
-1164      0
-1165     80
-1166    621
-1167    379
-Name: total_charged, Length: 114345, dtype: int64</t>
+1142    111
+1143    319
+1144      0
+1145    601
+1146    480
+Name: total_charged, Length: 112511, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -941,43 +941,43 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F10" t="n">
-        <v>511.3819334949079</v>
+        <v>510.0106393677598</v>
       </c>
       <c r="G10" t="n">
-        <v>693.8127643109007</v>
+        <v>705.9779011012704</v>
       </c>
       <c r="H10" t="n">
-        <v>170.5160744111434</v>
+        <v>170.0962818201573</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1529007232097687</v>
+        <v>0.1507240000854073</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3349695881806478</v>
+        <v>0.3279090607207886</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5121296886095835</v>
+        <v>0.5213669391938041</v>
       </c>
       <c r="L10" t="n">
-        <v>5358.945395616649</v>
+        <v>5473.387576327632</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0         0
-1       312
-2       325
-3        67
-4       252
+          <t>0       140
+1       319
+2        27
+3       453
+4       326
        ... 
-1187    193
-1188     61
-1189    252
-1190     50
-1191    125
-Name: total_charged, Length: 117115, dtype: int64</t>
+1194    143
+1195     72
+1196    109
+1197     86
+1198    115
+Name: total_charged, Length: 119046, dtype: int64</t>
         </is>
       </c>
     </row>

--- a/final_results/vessel_data_abm.xlsx
+++ b/final_results/vessel_data_abm.xlsx
@@ -509,43 +509,43 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="F2" t="n">
-        <v>689.9447207751965</v>
+        <v>471.3000279647361</v>
       </c>
       <c r="G2" t="n">
-        <v>411.1575575524141</v>
+        <v>211.2901330543516</v>
       </c>
       <c r="H2" t="n">
-        <v>78.21534042754499</v>
+        <v>52.15232681248498</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07865596740998609</v>
+        <v>0.08242909021723284</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2394453849136681</v>
+        <v>0.1560731313932184</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6818986476763458</v>
+        <v>0.7614977783895488</v>
       </c>
       <c r="L2" t="n">
-        <v>8194.50252070112</v>
+        <v>8136.034206064111</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0        50
-1       111
-2        56
-3        73
-4        50
-       ... 
-1460     55
-1461     39
-1462     74
-1463     43
-1464     20
-Name: total_charged, Length: 147639, dtype: int64</t>
+          <t>0       43
+1       98
+2       44
+3       52
+4       95
+        ..
+1010    52
+1011    25
+1012    12
+1013    50
+1014    47
+Name: total_charged, Length: 98529, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -563,43 +563,43 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="F3" t="n">
-        <v>688.0886383578821</v>
+        <v>466.926134873513</v>
       </c>
       <c r="G3" t="n">
-        <v>1151.069482556251</v>
+        <v>618.6551442914954</v>
       </c>
       <c r="H3" t="n">
-        <v>376.5177835322399</v>
+        <v>255.1698843736039</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1940679583731451</v>
+        <v>0.2180464546342966</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3964474108130775</v>
+        <v>0.2632600246927205</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4094846308137775</v>
+        <v>0.518693520672983</v>
       </c>
       <c r="L3" t="n">
-        <v>8290.212922329702</v>
+        <v>8303.406246262261</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0       440
-1       837
-2       233
-3         0
-4       598
-       ... 
-1244    888
-1245     51
-1246    371
-1247    325
-1248    205
-Name: total_charged, Length: 126831, dtype: int64</t>
+          <t>0      585
+1      145
+2       73
+3        0
+4      433
+      ... 
+939      0
+940    553
+941      0
+942     53
+943    584
+Name: total_charged, Length: 90728, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -617,43 +617,43 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>681.9482143690592</v>
+        <v>466.5860232113252</v>
       </c>
       <c r="G4" t="n">
-        <v>797.2282901403619</v>
+        <v>487.608219763874</v>
       </c>
       <c r="H4" t="n">
-        <v>228.669615049932</v>
+        <v>151.9244996215904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1501816188972414</v>
+        <v>0.158337673535164</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3490308216444599</v>
+        <v>0.2347435024876414</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5007875594582987</v>
+        <v>0.6069188239771947</v>
       </c>
       <c r="L4" t="n">
-        <v>8256.743845019051</v>
+        <v>8276.563196075451</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0         0
-1         0
-2         0
-3       353
-4       302
-       ... 
-1312    310
-1313     32
-1314      0
-1315     89
-1316    126
-Name: total_charged, Length: 135758, dtype: int64</t>
+          <t>0        0
+1      143
+2       57
+3       43
+4      255
+      ... 
+926    200
+927    156
+928    283
+929     91
+930     55
+Name: total_charged, Length: 91402, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -671,43 +671,43 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="F5" t="n">
-        <v>735.1793937606573</v>
+        <v>632.1094697199276</v>
       </c>
       <c r="G5" t="n">
-        <v>863.9383246671267</v>
+        <v>455.1548628310912</v>
       </c>
       <c r="H5" t="n">
-        <v>90.14469634769264</v>
+        <v>75.15873555818688</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07538108026612521</v>
+        <v>0.08111571510522812</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3330091836601908</v>
+        <v>0.196857978192605</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5916097360736841</v>
+        <v>0.7220263067021668</v>
       </c>
       <c r="L5" t="n">
-        <v>11330.76436068804</v>
+        <v>11590.36050775982</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0         6
-1         8
-2         0
-3        77
-4        31
+          <t>0         0
+1         0
+2        64
+3         0
+4       166
        ... 
-1355    203
-1356    112
-1357    147
-1358     20
-1359    212
-Name: total_charged, Length: 140894, dtype: int64</t>
+1220    160
+1221    121
+1222     28
+1223     61
+1224      0
+Name: total_charged, Length: 125837, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -725,43 +725,43 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F6" t="n">
-        <v>740.8945746071652</v>
+        <v>629.0863075096893</v>
       </c>
       <c r="G6" t="n">
-        <v>1195.444624652926</v>
+        <v>792.3160743749185</v>
       </c>
       <c r="H6" t="n">
-        <v>420.0686714340791</v>
+        <v>354.5113753314585</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1943338307081175</v>
+        <v>0.2151086402249628</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3984978333165458</v>
+        <v>0.295779239716532</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4071683359753367</v>
+        <v>0.4891121200585052</v>
       </c>
       <c r="L6" t="n">
-        <v>11242.40371892212</v>
+        <v>11594.99237895463</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0       344
-1       661
-2       643
-3       121
-4       373
-       ... 
-1329      0
-1330    276
-1331    225
-1332    114
-1333    564
-Name: total_charged, Length: 132117, dtype: int64</t>
+          <t>0        195
+1        694
+2          0
+3         82
+4        241
+        ... 
+1193     124
+1194     348
+1195     371
+1196    1754
+1197     216
+Name: total_charged, Length: 121189, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -779,43 +779,43 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>744.8374683771093</v>
+        <v>620.4914802185517</v>
       </c>
       <c r="G7" t="n">
-        <v>1096.403923527824</v>
+        <v>584.7765256570198</v>
       </c>
       <c r="H7" t="n">
-        <v>258.1790175287239</v>
+        <v>212.8584552540017</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1441430084568653</v>
+        <v>0.1643324921236784</v>
       </c>
       <c r="J7" t="n">
-        <v>0.391017166825935</v>
+        <v>0.254690813462867</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4648398247171997</v>
+        <v>0.5809766944134546</v>
       </c>
       <c r="L7" t="n">
-        <v>11222.12660708321</v>
+        <v>11454.57857074211</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0         0
-1        91
-2         0
-3       296
-4         0
+          <t>0       389
+1         0
+2       129
+3       133
+4       264
        ... 
-1408     41
-1409      0
-1410      0
-1411    175
-1412    300
-Name: total_charged, Length: 136793, dtype: int64</t>
+1262    243
+1263      0
+1264    140
+1265     66
+1266    417
+Name: total_charged, Length: 125916, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -833,43 +833,43 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>513.5685510490364</v>
+        <v>296.1558474346539</v>
       </c>
       <c r="G8" t="n">
-        <v>248.5731362189647</v>
+        <v>1.914508170117122</v>
       </c>
       <c r="H8" t="n">
-        <v>58.64620422562893</v>
+        <v>25.26791956336668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08381750653259069</v>
+        <v>0.0869136440516495</v>
       </c>
       <c r="J8" t="n">
-        <v>0.151822165247239</v>
+        <v>0.004928954598794375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7643603282201704</v>
+        <v>0.9081574013495562</v>
       </c>
       <c r="L8" t="n">
-        <v>5468.09356784078</v>
+        <v>4868.368905466657</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0        30
-1        56
-2        90
-3        29
-4        55
-       ... 
-1279    113
-1280    109
-1281     56
-1282     64
-1283     41
-Name: total_charged, Length: 126562, dtype: int64</t>
+          <t>0      24
+1       8
+2       8
+3      56
+4      70
+       ..
+543    23
+544    85
+545    35
+546    36
+547    65
+Name: total_charged, Length: 53479, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -887,43 +887,43 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>510.8959575445595</v>
+        <v>296.1054238144746</v>
       </c>
       <c r="G9" t="n">
-        <v>825.86044494143</v>
+        <v>135.5194370768785</v>
       </c>
       <c r="H9" t="n">
-        <v>282.3527500613303</v>
+        <v>122.4951332634983</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2082898776981312</v>
+        <v>0.2373374365802628</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3460109130145631</v>
+        <v>0.1186938646744018</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4456992092873058</v>
+        <v>0.6439686987453355</v>
       </c>
       <c r="L9" t="n">
-        <v>5433.788536721603</v>
+        <v>4865.08982304247</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0       117
-1       258
-2       346
-3       602
-4       147
-       ... 
-1142    111
-1143    319
-1144      0
-1145    601
-1146    480
-Name: total_charged, Length: 112511, dtype: int64</t>
+          <t>0       68
+1       89
+2        0
+3      150
+4      232
+      ... 
+545     37
+546     58
+547    200
+548    336
+549    448
+Name: total_charged, Length: 52855, dtype: int64</t>
         </is>
       </c>
     </row>
@@ -941,43 +941,43 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>510.0106393677598</v>
+        <v>295.7738781757708</v>
       </c>
       <c r="G10" t="n">
-        <v>705.9779011012704</v>
+        <v>20.96623407203141</v>
       </c>
       <c r="H10" t="n">
-        <v>170.0962818201573</v>
+        <v>73.30694995880602</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1507240000854073</v>
+        <v>0.1897327700163195</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3279090607207886</v>
+        <v>0.03613682517919353</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5213669391938041</v>
+        <v>0.7741304048044868</v>
       </c>
       <c r="L10" t="n">
-        <v>5473.387576327632</v>
+        <v>4869.920722913243</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0       140
-1       319
-2        27
-3       453
-4       326
-       ... 
-1194    143
-1195     72
-1196    109
-1197     86
-1198    115
-Name: total_charged, Length: 119046, dtype: int64</t>
+          <t>0       61
+1       22
+2       56
+3      115
+4       67
+      ... 
+499      0
+500      0
+501     88
+502     70
+503    192
+Name: total_charged, Length: 53568, dtype: int64</t>
         </is>
       </c>
     </row>
